--- a/data_month/zb/能源/能源主要产品产量/原煤.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/原煤.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2291 +454,2656 @@
           <t>原煤产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>原煤产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.19</v>
+        <v>-6.6</v>
       </c>
       <c r="C2" t="n">
-        <v>7229.55</v>
+        <v>6614.01</v>
       </c>
       <c r="D2" t="n">
-        <v>68856.14999999999</v>
+        <v>6614.01</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7</v>
+        <v>-6.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6614.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.04</v>
+        <v>-20.9</v>
       </c>
       <c r="C3" t="n">
-        <v>7538.04</v>
+        <v>4298.17</v>
       </c>
       <c r="D3" t="n">
-        <v>76558.2</v>
+        <v>10763.94</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.59</v>
+        <v>-14.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4149.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.58</v>
+        <v>2.5</v>
       </c>
       <c r="C4" t="n">
-        <v>8682.66</v>
+        <v>7496.11</v>
       </c>
       <c r="D4" t="n">
-        <v>88009.94</v>
+        <v>18423.42</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.18</v>
+        <v>-7.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7659.479999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6.6</v>
+        <v>-1.92</v>
       </c>
       <c r="C5" t="n">
-        <v>6614.01</v>
+        <v>7044.09</v>
       </c>
       <c r="D5" t="n">
-        <v>6614.01</v>
+        <v>25400.61</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.6</v>
+        <v>-6.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6977.190000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.9</v>
+        <v>2.06</v>
       </c>
       <c r="C6" t="n">
-        <v>4298.17</v>
+        <v>7454.91</v>
       </c>
       <c r="D6" t="n">
-        <v>10763.94</v>
+        <v>32828.67</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.6</v>
+        <v>-4.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7428.059999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="C7" t="n">
-        <v>7496.11</v>
+        <v>7496.16</v>
       </c>
       <c r="D7" t="n">
-        <v>18423.42</v>
+        <v>40337.14</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.5</v>
+        <v>-2.67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7508.470000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.92</v>
+        <v>2.83</v>
       </c>
       <c r="C8" t="n">
-        <v>7044.09</v>
+        <v>6970.15</v>
       </c>
       <c r="D8" t="n">
-        <v>25400.61</v>
+        <v>47436.32</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.05</v>
+        <v>-2.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7099.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.06</v>
+        <v>2.89</v>
       </c>
       <c r="C9" t="n">
-        <v>7454.91</v>
+        <v>6986.44</v>
       </c>
       <c r="D9" t="n">
-        <v>32828.67</v>
+        <v>54453.72</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.8</v>
+        <v>-1.45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7017.400000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="C10" t="n">
-        <v>7496.16</v>
+        <v>7128.73</v>
       </c>
       <c r="D10" t="n">
-        <v>40337.14</v>
+        <v>61626.66</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.67</v>
+        <v>-1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7172.940000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.83</v>
+        <v>2.19</v>
       </c>
       <c r="C11" t="n">
-        <v>6970.15</v>
+        <v>7229.55</v>
       </c>
       <c r="D11" t="n">
-        <v>47436.32</v>
+        <v>68856.14999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.12</v>
+        <v>-0.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7229.489999999991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.89</v>
+        <v>-1.04</v>
       </c>
       <c r="C12" t="n">
-        <v>6986.44</v>
+        <v>7538.04</v>
       </c>
       <c r="D12" t="n">
-        <v>54453.72</v>
+        <v>76558.2</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.45</v>
+        <v>-0.59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7702.050000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.5</v>
+        <v>-1.58</v>
       </c>
       <c r="C13" t="n">
-        <v>7128.73</v>
+        <v>8682.66</v>
       </c>
       <c r="D13" t="n">
-        <v>61626.66</v>
+        <v>88009.94</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>-1.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11451.74000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.91</v>
+        <v>-2.65</v>
       </c>
       <c r="C14" t="n">
-        <v>8389.34</v>
+        <v>6345.39</v>
       </c>
       <c r="D14" t="n">
-        <v>77147</v>
+        <v>6345.39</v>
       </c>
       <c r="E14" t="n">
-        <v>10.72</v>
+        <v>-2.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6345.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.57</v>
+        <v>52.77</v>
       </c>
       <c r="C15" t="n">
-        <v>8806.48</v>
+        <v>6797.35</v>
       </c>
       <c r="D15" t="n">
-        <v>85955.06</v>
+        <v>13131</v>
       </c>
       <c r="E15" t="n">
-        <v>10.88</v>
+        <v>18.99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6785.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.76</v>
+        <v>7.59</v>
       </c>
       <c r="C16" t="n">
-        <v>10018.67</v>
+        <v>8249.42</v>
       </c>
       <c r="D16" t="n">
-        <v>96417.91</v>
+        <v>21487.66</v>
       </c>
       <c r="E16" t="n">
-        <v>10.89</v>
+        <v>14.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8356.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.65</v>
+        <v>10.82</v>
       </c>
       <c r="C17" t="n">
-        <v>6345.39</v>
+        <v>7942.23</v>
       </c>
       <c r="D17" t="n">
-        <v>6345.39</v>
+        <v>29257.84</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.65</v>
+        <v>13.36</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7770.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.77</v>
+        <v>6.92</v>
       </c>
       <c r="C18" t="n">
-        <v>6797.35</v>
+        <v>8062.61</v>
       </c>
       <c r="D18" t="n">
-        <v>13131</v>
+        <v>37363.45</v>
       </c>
       <c r="E18" t="n">
-        <v>18.99</v>
+        <v>12.08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8105.609999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.59</v>
+        <v>6.86</v>
       </c>
       <c r="C19" t="n">
-        <v>8249.42</v>
+        <v>8093.81</v>
       </c>
       <c r="D19" t="n">
-        <v>21487.66</v>
+        <v>45505.21</v>
       </c>
       <c r="E19" t="n">
-        <v>14.2</v>
+        <v>11.18</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8141.760000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.82</v>
+        <v>4.99</v>
       </c>
       <c r="C20" t="n">
-        <v>7942.23</v>
+        <v>7414.16</v>
       </c>
       <c r="D20" t="n">
-        <v>29257.84</v>
+        <v>52922.97</v>
       </c>
       <c r="E20" t="n">
-        <v>13.36</v>
+        <v>10.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7417.760000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.92</v>
+        <v>8.69</v>
       </c>
       <c r="C21" t="n">
-        <v>8062.61</v>
+        <v>7809.97</v>
       </c>
       <c r="D21" t="n">
-        <v>37363.45</v>
+        <v>60671.13</v>
       </c>
       <c r="E21" t="n">
-        <v>12.08</v>
+        <v>10.03</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7748.159999999996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.86</v>
+        <v>11.28</v>
       </c>
       <c r="C22" t="n">
-        <v>8093.81</v>
+        <v>8118.12</v>
       </c>
       <c r="D22" t="n">
-        <v>45505.21</v>
+        <v>68783.66</v>
       </c>
       <c r="E22" t="n">
-        <v>11.18</v>
+        <v>10.19</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8112.530000000006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.99</v>
+        <v>15.91</v>
       </c>
       <c r="C23" t="n">
-        <v>7414.16</v>
+        <v>8389.34</v>
       </c>
       <c r="D23" t="n">
-        <v>52922.97</v>
+        <v>77147</v>
       </c>
       <c r="E23" t="n">
-        <v>10.25</v>
+        <v>10.72</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8363.339999999997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.69</v>
+        <v>12.57</v>
       </c>
       <c r="C24" t="n">
-        <v>7809.97</v>
+        <v>8806.48</v>
       </c>
       <c r="D24" t="n">
-        <v>60671.13</v>
+        <v>85955.06</v>
       </c>
       <c r="E24" t="n">
-        <v>10.03</v>
+        <v>10.88</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8808.059999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.28</v>
+        <v>9.76</v>
       </c>
       <c r="C25" t="n">
-        <v>8118.12</v>
+        <v>10018.67</v>
       </c>
       <c r="D25" t="n">
-        <v>68783.66</v>
+        <v>96417.91</v>
       </c>
       <c r="E25" t="n">
-        <v>10.19</v>
+        <v>10.89</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10462.85000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.02</v>
+        <v>36.28</v>
       </c>
       <c r="C26" t="n">
-        <v>9487.700000000001</v>
+        <v>8633.129999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>89455.41</v>
+        <v>8633.129999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>17.85</v>
+        <v>36.28</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8633.129999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.75</v>
+        <v>7.88</v>
       </c>
       <c r="C27" t="n">
-        <v>10034.95</v>
+        <v>6848.65</v>
       </c>
       <c r="D27" t="n">
-        <v>99513.41</v>
+        <v>15182.54</v>
       </c>
       <c r="E27" t="n">
-        <v>17.2</v>
+        <v>21.88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6549.410000000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.29</v>
+        <v>16.44</v>
       </c>
       <c r="C28" t="n">
-        <v>11463.4</v>
+        <v>9378.190000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>111293.48</v>
+        <v>24746.73</v>
       </c>
       <c r="E28" t="n">
-        <v>17.36</v>
+        <v>18.92</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9564.189999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.28</v>
+        <v>16.61</v>
       </c>
       <c r="C29" t="n">
-        <v>8633.129999999999</v>
+        <v>9281</v>
       </c>
       <c r="D29" t="n">
-        <v>8633.129999999999</v>
+        <v>34040.83</v>
       </c>
       <c r="E29" t="n">
-        <v>36.28</v>
+        <v>18.15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9294.100000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.88</v>
+        <v>19.03</v>
       </c>
       <c r="C30" t="n">
-        <v>6848.65</v>
+        <v>9160.91</v>
       </c>
       <c r="D30" t="n">
-        <v>15182.54</v>
+        <v>43256.36</v>
       </c>
       <c r="E30" t="n">
-        <v>21.88</v>
+        <v>18.39</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9215.529999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.44</v>
+        <v>17.25</v>
       </c>
       <c r="C31" t="n">
-        <v>9378.190000000001</v>
+        <v>9362.540000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>24746.73</v>
+        <v>52511.36</v>
       </c>
       <c r="E31" t="n">
-        <v>18.92</v>
+        <v>18.05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.61</v>
+        <v>19.46</v>
       </c>
       <c r="C32" t="n">
-        <v>9281</v>
+        <v>8716.040000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>34040.83</v>
+        <v>61172.82</v>
       </c>
       <c r="E32" t="n">
-        <v>18.15</v>
+        <v>18.62</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8661.459999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.03</v>
+        <v>17.4</v>
       </c>
       <c r="C33" t="n">
-        <v>9160.91</v>
+        <v>9089.870000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>43256.36</v>
+        <v>70601.95</v>
       </c>
       <c r="E33" t="n">
-        <v>18.39</v>
+        <v>18.51</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9429.129999999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.25</v>
+        <v>17.05</v>
       </c>
       <c r="C34" t="n">
-        <v>9362.540000000001</v>
+        <v>9350.719999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>52511.36</v>
+        <v>79963.60000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>18.05</v>
+        <v>18.29</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9361.650000000009</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.46</v>
+        <v>15.02</v>
       </c>
       <c r="C35" t="n">
-        <v>8716.040000000001</v>
+        <v>9487.700000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>61172.82</v>
+        <v>89455.41</v>
       </c>
       <c r="E35" t="n">
-        <v>18.62</v>
+        <v>17.85</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9491.809999999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.4</v>
+        <v>11.75</v>
       </c>
       <c r="C36" t="n">
-        <v>9089.870000000001</v>
+        <v>10034.95</v>
       </c>
       <c r="D36" t="n">
-        <v>70601.95</v>
+        <v>99513.41</v>
       </c>
       <c r="E36" t="n">
-        <v>18.51</v>
+        <v>17.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10058</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.05</v>
+        <v>18.29</v>
       </c>
       <c r="C37" t="n">
-        <v>9350.719999999999</v>
+        <v>11463.4</v>
       </c>
       <c r="D37" t="n">
-        <v>79963.60000000001</v>
+        <v>111293.48</v>
       </c>
       <c r="E37" t="n">
-        <v>18.29</v>
+        <v>17.36</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11780.06999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.2</v>
+        <v>10.81</v>
       </c>
       <c r="C38" t="n">
-        <v>11470.67</v>
+        <v>9630.9</v>
       </c>
       <c r="D38" t="n">
-        <v>105488.5</v>
+        <v>9630.9</v>
       </c>
       <c r="E38" t="n">
-        <v>17.3</v>
+        <v>10.81</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9630.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.9</v>
+        <v>16.11</v>
       </c>
       <c r="C39" t="n">
-        <v>12237.64</v>
+        <v>8538.57</v>
       </c>
       <c r="D39" t="n">
-        <v>117779.18</v>
+        <v>18056.57</v>
       </c>
       <c r="E39" t="n">
-        <v>17.7</v>
+        <v>12.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8425.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.4</v>
+        <v>16.9</v>
       </c>
       <c r="C40" t="n">
-        <v>13596.69</v>
+        <v>10687.42</v>
       </c>
       <c r="D40" t="n">
-        <v>132669.58</v>
+        <v>28700.33</v>
       </c>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>14.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10643.76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.81</v>
+        <v>14.9</v>
       </c>
       <c r="C41" t="n">
-        <v>9630.9</v>
+        <v>10732.94</v>
       </c>
       <c r="D41" t="n">
-        <v>9630.9</v>
+        <v>39119.63</v>
       </c>
       <c r="E41" t="n">
-        <v>10.81</v>
+        <v>13.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10419.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.11</v>
+        <v>18.7</v>
       </c>
       <c r="C42" t="n">
-        <v>8538.57</v>
+        <v>10910.97</v>
       </c>
       <c r="D42" t="n">
-        <v>18056.57</v>
+        <v>50008.17</v>
       </c>
       <c r="E42" t="n">
-        <v>12.85</v>
+        <v>14.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10888.54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.9</v>
+        <v>21.4</v>
       </c>
       <c r="C43" t="n">
-        <v>10687.42</v>
+        <v>11443.91</v>
       </c>
       <c r="D43" t="n">
-        <v>28700.33</v>
+        <v>61609.35</v>
       </c>
       <c r="E43" t="n">
-        <v>14.6</v>
+        <v>16.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11601.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.9</v>
+        <v>23.6</v>
       </c>
       <c r="C44" t="n">
-        <v>10732.94</v>
+        <v>10993.29</v>
       </c>
       <c r="D44" t="n">
-        <v>39119.63</v>
+        <v>72624.66</v>
       </c>
       <c r="E44" t="n">
-        <v>13.7</v>
+        <v>17.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11015.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18.7</v>
+        <v>16.5</v>
       </c>
       <c r="C45" t="n">
-        <v>10910.97</v>
+        <v>10719.05</v>
       </c>
       <c r="D45" t="n">
-        <v>50008.17</v>
+        <v>83291.11</v>
       </c>
       <c r="E45" t="n">
-        <v>14.9</v>
+        <v>17.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10666.45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.4</v>
+        <v>13.2</v>
       </c>
       <c r="C46" t="n">
-        <v>11443.91</v>
+        <v>10560.61</v>
       </c>
       <c r="D46" t="n">
-        <v>61609.35</v>
+        <v>93938.91</v>
       </c>
       <c r="E46" t="n">
-        <v>16.3</v>
+        <v>16.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10647.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23.6</v>
+        <v>20.2</v>
       </c>
       <c r="C47" t="n">
-        <v>10993.29</v>
+        <v>11470.67</v>
       </c>
       <c r="D47" t="n">
-        <v>72624.66</v>
+        <v>105488.5</v>
       </c>
       <c r="E47" t="n">
         <v>17.3</v>
       </c>
+      <c r="F47" t="n">
+        <v>11549.59</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="C48" t="n">
-        <v>10719.05</v>
+        <v>12237.64</v>
       </c>
       <c r="D48" t="n">
-        <v>83291.11</v>
+        <v>117779.18</v>
       </c>
       <c r="E48" t="n">
-        <v>17.1</v>
+        <v>17.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12290.67999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13.2</v>
+        <v>15.4</v>
       </c>
       <c r="C49" t="n">
-        <v>10560.61</v>
+        <v>13596.69</v>
       </c>
       <c r="D49" t="n">
-        <v>93938.91</v>
+        <v>132669.58</v>
       </c>
       <c r="E49" t="n">
-        <v>16.8</v>
+        <v>18</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14890.39999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16.3</v>
+        <v>3.9</v>
       </c>
       <c r="C50" t="n">
-        <v>14018.02</v>
+        <v>9694.9</v>
       </c>
       <c r="D50" t="n">
-        <v>128532.02</v>
+        <v>9694.9</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>3.9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9694.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.9</v>
+        <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>14369.75</v>
+        <v>11001.55</v>
       </c>
       <c r="D51" t="n">
-        <v>142738.12</v>
+        <v>20672.78</v>
       </c>
       <c r="E51" t="n">
-        <v>15.6</v>
+        <v>13.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10977.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.199999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="C52" t="n">
-        <v>15269.79</v>
+        <v>12812.81</v>
       </c>
       <c r="D52" t="n">
-        <v>160610.86</v>
+        <v>33526.11</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>14.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12853.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.9</v>
+        <v>18.6</v>
       </c>
       <c r="C53" t="n">
-        <v>9694.9</v>
+        <v>13129.26</v>
       </c>
       <c r="D53" t="n">
-        <v>9694.9</v>
+        <v>46927.75</v>
       </c>
       <c r="E53" t="n">
-        <v>3.9</v>
+        <v>16.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13401.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24.4</v>
+        <v>15.3</v>
       </c>
       <c r="C54" t="n">
-        <v>11001.55</v>
+        <v>12872.29</v>
       </c>
       <c r="D54" t="n">
-        <v>20672.78</v>
+        <v>60020.22</v>
       </c>
       <c r="E54" t="n">
-        <v>13.9</v>
+        <v>16.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13092.47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16.3</v>
+        <v>12.3</v>
       </c>
       <c r="C55" t="n">
-        <v>12812.81</v>
+        <v>13540.87</v>
       </c>
       <c r="D55" t="n">
-        <v>33526.11</v>
+        <v>74308.92999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14288.70999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>18.6</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
-        <v>13129.26</v>
+        <v>13150.39</v>
       </c>
       <c r="D56" t="n">
-        <v>46927.75</v>
+        <v>87522.95</v>
       </c>
       <c r="E56" t="n">
-        <v>16.2</v>
+        <v>14.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13214.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15.3</v>
+        <v>17.2</v>
       </c>
       <c r="C57" t="n">
-        <v>12872.29</v>
+        <v>13254.94</v>
       </c>
       <c r="D57" t="n">
-        <v>60020.22</v>
+        <v>100730.53</v>
       </c>
       <c r="E57" t="n">
-        <v>16.1</v>
+        <v>15.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13207.58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.3</v>
+        <v>20.4</v>
       </c>
       <c r="C58" t="n">
-        <v>13540.87</v>
+        <v>13405.98</v>
       </c>
       <c r="D58" t="n">
-        <v>74308.92999999999</v>
+        <v>114339.36</v>
       </c>
       <c r="E58" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13608.83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14</v>
+        <v>16.3</v>
       </c>
       <c r="C59" t="n">
-        <v>13150.39</v>
+        <v>14018.02</v>
       </c>
       <c r="D59" t="n">
-        <v>87522.95</v>
+        <v>128532.02</v>
       </c>
       <c r="E59" t="n">
-        <v>14.8</v>
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>14192.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.2</v>
+        <v>12.9</v>
       </c>
       <c r="C60" t="n">
-        <v>13254.94</v>
+        <v>14369.75</v>
       </c>
       <c r="D60" t="n">
-        <v>100730.53</v>
+        <v>142738.12</v>
       </c>
       <c r="E60" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14206.09999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>13405.98</v>
+        <v>15269.79</v>
       </c>
       <c r="D61" t="n">
-        <v>114339.36</v>
+        <v>160610.86</v>
       </c>
       <c r="E61" t="n">
-        <v>15.8</v>
+        <v>15</v>
+      </c>
+      <c r="F61" t="n">
+        <v>17872.73999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10.8</v>
+        <v>27.1</v>
       </c>
       <c r="C62" t="n">
-        <v>16354.75</v>
+        <v>12879.05</v>
       </c>
       <c r="D62" t="n">
-        <v>146912.26</v>
+        <v>12879.05</v>
       </c>
       <c r="E62" t="n">
-        <v>10.4</v>
+        <v>27.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12879.05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11.4</v>
+        <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>17043.1</v>
+        <v>11138.29</v>
       </c>
       <c r="D63" t="n">
-        <v>163858.53</v>
+        <v>24188.48</v>
       </c>
       <c r="E63" t="n">
-        <v>10.3</v>
+        <v>12.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11309.43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="C64" t="n">
-        <v>18002.37</v>
+        <v>14002.3</v>
       </c>
       <c r="D64" t="n">
-        <v>182424.49</v>
+        <v>38212.15</v>
       </c>
       <c r="E64" t="n">
-        <v>10.7</v>
+        <v>9.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>14023.67</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>27.1</v>
+        <v>5.4</v>
       </c>
       <c r="C65" t="n">
-        <v>12879.05</v>
+        <v>14386.62</v>
       </c>
       <c r="D65" t="n">
-        <v>12879.05</v>
+        <v>52860.74</v>
       </c>
       <c r="E65" t="n">
-        <v>27.1</v>
+        <v>8.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>14648.59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-2</v>
+        <v>11.6</v>
       </c>
       <c r="C66" t="n">
-        <v>11138.29</v>
+        <v>14989.05</v>
       </c>
       <c r="D66" t="n">
-        <v>24188.48</v>
+        <v>67766.42</v>
       </c>
       <c r="E66" t="n">
-        <v>12.2</v>
+        <v>8.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14905.68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.2</v>
+        <v>12.9</v>
       </c>
       <c r="C67" t="n">
-        <v>14002.3</v>
+        <v>15859.6</v>
       </c>
       <c r="D67" t="n">
-        <v>38212.15</v>
+        <v>83698.12</v>
       </c>
       <c r="E67" t="n">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15931.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
       <c r="C68" t="n">
-        <v>14386.62</v>
+        <v>15175.55</v>
       </c>
       <c r="D68" t="n">
-        <v>52860.74</v>
+        <v>98924.72</v>
       </c>
       <c r="E68" t="n">
-        <v>8.6</v>
+        <v>9.9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15226.60000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="C69" t="n">
-        <v>14989.05</v>
+        <v>15395.94</v>
       </c>
       <c r="D69" t="n">
-        <v>67766.42</v>
+        <v>114490.4</v>
       </c>
       <c r="E69" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15565.67999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C70" t="n">
-        <v>15859.6</v>
+        <v>15764.11</v>
       </c>
       <c r="D70" t="n">
-        <v>83698.12</v>
+        <v>130377.1</v>
       </c>
       <c r="E70" t="n">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15886.70000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>10.8</v>
       </c>
       <c r="C71" t="n">
-        <v>15175.55</v>
+        <v>16354.75</v>
       </c>
       <c r="D71" t="n">
-        <v>98924.72</v>
+        <v>146912.26</v>
       </c>
       <c r="E71" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16535.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.1</v>
+        <v>11.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15395.94</v>
+        <v>17043.1</v>
       </c>
       <c r="D72" t="n">
-        <v>114490.4</v>
+        <v>163858.53</v>
       </c>
       <c r="E72" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16946.26999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="C73" t="n">
-        <v>15764.11</v>
+        <v>18002.37</v>
       </c>
       <c r="D73" t="n">
-        <v>130377.1</v>
+        <v>182424.49</v>
       </c>
       <c r="E73" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>18565.95999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>14.6</v>
+        <v>-1.20686009685166</v>
       </c>
       <c r="C74" t="n">
-        <v>18654.62</v>
+        <v>12923.014368</v>
       </c>
       <c r="D74" t="n">
-        <v>167285.18</v>
+        <v>12923.014368</v>
       </c>
       <c r="E74" t="n">
-        <v>12.2</v>
+        <v>-1.20686009685166</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12923.014368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.1</v>
+        <v>22.1</v>
       </c>
       <c r="C75" t="n">
-        <v>18967.09</v>
+        <v>13697.33</v>
       </c>
       <c r="D75" t="n">
-        <v>186055.73</v>
+        <v>26620.33</v>
       </c>
       <c r="E75" t="n">
-        <v>11.9</v>
+        <v>9.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13697.315632</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11.4</v>
+        <v>16.8</v>
       </c>
       <c r="C76" t="n">
-        <v>20389.21</v>
+        <v>16621.76</v>
       </c>
       <c r="D76" t="n">
-        <v>206598.67</v>
+        <v>43148.28</v>
       </c>
       <c r="E76" t="n">
-        <v>11.9</v>
+        <v>12</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16527.95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1.20686009685166</v>
+        <v>18.9</v>
       </c>
       <c r="C77" t="n">
-        <v>12923.014368</v>
+        <v>17411.78</v>
       </c>
       <c r="D77" t="n">
-        <v>12923.014368</v>
+        <v>60508.93</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.20686009685166</v>
+        <v>13.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17360.65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22.1</v>
+        <v>12.9</v>
       </c>
       <c r="C78" t="n">
-        <v>13697.33</v>
+        <v>17328.45</v>
       </c>
       <c r="D78" t="n">
-        <v>26620.33</v>
+        <v>77885.73</v>
       </c>
       <c r="E78" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>17376.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16.8</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>16621.76</v>
+        <v>17966.69</v>
       </c>
       <c r="D79" t="n">
-        <v>43148.28</v>
+        <v>96129.27</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>12.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18243.54000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>17411.78</v>
+        <v>16842.14</v>
       </c>
       <c r="D80" t="n">
-        <v>60508.93</v>
+        <v>112672.39</v>
       </c>
       <c r="E80" t="n">
-        <v>13.8</v>
+        <v>12.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16543.12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12.9</v>
+        <v>10.3</v>
       </c>
       <c r="C81" t="n">
-        <v>17328.45</v>
+        <v>17437.42</v>
       </c>
       <c r="D81" t="n">
-        <v>77885.73</v>
+        <v>130962.17</v>
       </c>
       <c r="E81" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18289.78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="C82" t="n">
-        <v>17966.69</v>
+        <v>18127.51</v>
       </c>
       <c r="D82" t="n">
-        <v>96129.27</v>
+        <v>147758.85</v>
       </c>
       <c r="E82" t="n">
-        <v>12.8</v>
+        <v>11.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16796.68000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9.699999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="C83" t="n">
-        <v>16842.14</v>
+        <v>18654.62</v>
       </c>
       <c r="D83" t="n">
-        <v>112672.39</v>
+        <v>167285.18</v>
       </c>
       <c r="E83" t="n">
         <v>12.2</v>
       </c>
+      <c r="F83" t="n">
+        <v>19526.32999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10.3</v>
+        <v>9.1</v>
       </c>
       <c r="C84" t="n">
-        <v>17437.42</v>
+        <v>18967.09</v>
       </c>
       <c r="D84" t="n">
-        <v>130962.17</v>
+        <v>186055.73</v>
       </c>
       <c r="E84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18770.55000000002</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="C85" t="n">
-        <v>18127.51</v>
+        <v>20389.21</v>
       </c>
       <c r="D85" t="n">
-        <v>147758.85</v>
+        <v>206598.67</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20542.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>28.7091686031024</v>
       </c>
       <c r="C86" t="n">
-        <v>19877.28</v>
+        <v>17479.012244</v>
       </c>
       <c r="D86" t="n">
-        <v>187716.15</v>
+        <v>17479.012244</v>
       </c>
       <c r="E86" t="n">
-        <v>10.2</v>
+        <v>28.7091686031024</v>
+      </c>
+      <c r="F86" t="n">
+        <v>17479.012244</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="C87" t="n">
-        <v>21192.17</v>
+        <v>14203.23</v>
       </c>
       <c r="D87" t="n">
-        <v>208754.93</v>
+        <v>31682.24</v>
       </c>
       <c r="E87" t="n">
-        <v>10.1</v>
+        <v>15.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14203.227756</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.2</v>
+        <v>10.3</v>
       </c>
       <c r="C88" t="n">
-        <v>21849.76</v>
+        <v>17775.89</v>
       </c>
       <c r="D88" t="n">
-        <v>229467.58</v>
+        <v>49492.78</v>
       </c>
       <c r="E88" t="n">
-        <v>9.4</v>
+        <v>14.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>17810.54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>28.7091686031024</v>
+        <v>10.5</v>
       </c>
       <c r="C89" t="n">
-        <v>17479.012244</v>
+        <v>18846.63</v>
       </c>
       <c r="D89" t="n">
-        <v>17479.012244</v>
+        <v>68585.95</v>
       </c>
       <c r="E89" t="n">
-        <v>28.7091686031024</v>
+        <v>13.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19093.17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>14203.23</v>
+        <v>19115.32</v>
       </c>
       <c r="D90" t="n">
-        <v>31682.24</v>
+        <v>87590.25999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>15.7</v>
+        <v>12.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19004.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>17775.89</v>
+        <v>20239.65</v>
       </c>
       <c r="D91" t="n">
-        <v>49492.78</v>
+        <v>108189.97</v>
       </c>
       <c r="E91" t="n">
-        <v>14.8</v>
+        <v>11.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20599.71000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="C92" t="n">
-        <v>18846.63</v>
+        <v>19560.99</v>
       </c>
       <c r="D92" t="n">
-        <v>68585.95</v>
+        <v>127804.29</v>
       </c>
       <c r="E92" t="n">
-        <v>13.8</v>
+        <v>11.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19614.31999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>19115.32</v>
+        <v>19397.05</v>
       </c>
       <c r="D93" t="n">
-        <v>87590.25999999999</v>
+        <v>147207.18</v>
       </c>
       <c r="E93" t="n">
-        <v>12.5</v>
+        <v>11.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19402.89</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C94" t="n">
-        <v>20239.65</v>
+        <v>20355.12</v>
       </c>
       <c r="D94" t="n">
-        <v>108189.97</v>
+        <v>167674.15</v>
       </c>
       <c r="E94" t="n">
-        <v>11.4</v>
+        <v>11</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20466.97</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12.7</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>19560.99</v>
+        <v>19877.28</v>
       </c>
       <c r="D95" t="n">
-        <v>127804.29</v>
+        <v>187716.15</v>
       </c>
       <c r="E95" t="n">
-        <v>11.7</v>
+        <v>10.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20042</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>19397.05</v>
+        <v>21192.17</v>
       </c>
       <c r="D96" t="n">
-        <v>147207.18</v>
+        <v>208754.93</v>
       </c>
       <c r="E96" t="n">
-        <v>11.2</v>
+        <v>10.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21038.78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21849.76</v>
+      </c>
+      <c r="D97" t="n">
+        <v>229467.58</v>
+      </c>
+      <c r="E97" t="n">
         <v>9.4</v>
       </c>
-      <c r="C97" t="n">
-        <v>20355.12</v>
-      </c>
-      <c r="D97" t="n">
-        <v>167674.15</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11</v>
+      <c r="F97" t="n">
+        <v>20712.64999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.199999999999999</v>
+        <v>7.18564521607075</v>
       </c>
       <c r="C98" t="n">
-        <v>21927.64</v>
+        <v>18735.67</v>
       </c>
       <c r="D98" t="n">
-        <v>215461.15</v>
+        <v>18735.67</v>
       </c>
       <c r="E98" t="n">
-        <v>14.2</v>
+        <v>7.18564521607075</v>
+      </c>
+      <c r="F98" t="n">
+        <v>18735.67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5.2</v>
+        <v>21.2</v>
       </c>
       <c r="C99" t="n">
-        <v>22697.18</v>
+        <v>17000.79</v>
       </c>
       <c r="D99" t="n">
-        <v>238844.29</v>
+        <v>35736.46</v>
       </c>
       <c r="E99" t="n">
         <v>13.4</v>
       </c>
+      <c r="F99" t="n">
+        <v>17000.79</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1.3</v>
+        <v>17.5</v>
       </c>
       <c r="C100" t="n">
-        <v>21994.04</v>
+        <v>21128.71</v>
       </c>
       <c r="D100" t="n">
-        <v>262183.23</v>
+        <v>56930.61</v>
       </c>
       <c r="E100" t="n">
-        <v>12.8</v>
+        <v>14.6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21194.15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7.18564521607075</v>
+        <v>13.9</v>
       </c>
       <c r="C101" t="n">
-        <v>18735.67</v>
+        <v>21333.69</v>
       </c>
       <c r="D101" t="n">
-        <v>18735.67</v>
+        <v>78209.64999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>7.18564521607075</v>
+        <v>14.4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21279.03999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>21.2</v>
+        <v>18.5</v>
       </c>
       <c r="C102" t="n">
-        <v>17000.79</v>
+        <v>22700.18</v>
       </c>
       <c r="D102" t="n">
-        <v>35736.46</v>
+        <v>101326.73</v>
       </c>
       <c r="E102" t="n">
-        <v>13.4</v>
+        <v>15.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>23117.08</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="C103" t="n">
-        <v>21128.71</v>
+        <v>23935.71</v>
       </c>
       <c r="D103" t="n">
-        <v>56930.61</v>
+        <v>125640.87</v>
       </c>
       <c r="E103" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24314.14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>13.9</v>
+        <v>10.9</v>
       </c>
       <c r="C104" t="n">
-        <v>21333.69</v>
+        <v>22028.77</v>
       </c>
       <c r="D104" t="n">
-        <v>78209.64999999999</v>
+        <v>147505.27</v>
       </c>
       <c r="E104" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21864.39999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18.5</v>
+        <v>12.1</v>
       </c>
       <c r="C105" t="n">
-        <v>22700.18</v>
+        <v>22214.15</v>
       </c>
       <c r="D105" t="n">
-        <v>101326.73</v>
+        <v>170772.84</v>
       </c>
       <c r="E105" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>23267.57000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>17.3</v>
+        <v>10.8</v>
       </c>
       <c r="C106" t="n">
-        <v>23935.71</v>
+        <v>22869.9</v>
       </c>
       <c r="D106" t="n">
-        <v>125640.87</v>
+        <v>193388.78</v>
       </c>
       <c r="E106" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>22615.94</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>22028.77</v>
+        <v>21927.64</v>
       </c>
       <c r="D107" t="n">
-        <v>147505.27</v>
+        <v>215461.15</v>
       </c>
       <c r="E107" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22072.37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12.1</v>
+        <v>5.2</v>
       </c>
       <c r="C108" t="n">
-        <v>22214.15</v>
+        <v>22697.18</v>
       </c>
       <c r="D108" t="n">
-        <v>170772.84</v>
+        <v>238844.29</v>
       </c>
       <c r="E108" t="n">
-        <v>14.7</v>
+        <v>13.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>23383.14000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10.8</v>
+        <v>-1.3</v>
       </c>
       <c r="C109" t="n">
-        <v>22869.9</v>
+        <v>21994.04</v>
       </c>
       <c r="D109" t="n">
-        <v>193388.78</v>
+        <v>262183.23</v>
       </c>
       <c r="E109" t="n">
-        <v>14.4</v>
+        <v>12.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>23338.93999999997</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>21.1</v>
+        <v>-7.60045371960289</v>
       </c>
       <c r="C110" t="n">
-        <v>27306.83</v>
+        <v>17234.452912</v>
       </c>
       <c r="D110" t="n">
-        <v>241771.74</v>
+        <v>17234.452912</v>
       </c>
       <c r="E110" t="n">
-        <v>11.4</v>
+        <v>-7.60045371960289</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17234.452912</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>26.3</v>
+        <v>16</v>
       </c>
       <c r="C111" t="n">
-        <v>28894.05</v>
+        <v>19656.48</v>
       </c>
       <c r="D111" t="n">
-        <v>270547.55</v>
+        <v>36890.9</v>
       </c>
       <c r="E111" t="n">
-        <v>12.6</v>
+        <v>3.6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19656.447088</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25.1</v>
+        <v>10.3</v>
       </c>
       <c r="C112" t="n">
-        <v>28062.25</v>
+        <v>23342.71</v>
       </c>
       <c r="D112" t="n">
-        <v>296477.25</v>
+        <v>60159.87</v>
       </c>
       <c r="E112" t="n">
-        <v>12.7</v>
+        <v>6.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>23268.97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-7.60045371960289</v>
+        <v>7.9</v>
       </c>
       <c r="C113" t="n">
-        <v>17234.452912</v>
+        <v>22979.98</v>
       </c>
       <c r="D113" t="n">
-        <v>17234.452912</v>
+        <v>82779.81</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.60045371960289</v>
+        <v>6.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>22619.94</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="C114" t="n">
-        <v>19656.48</v>
+        <v>24841.05</v>
       </c>
       <c r="D114" t="n">
-        <v>36890.9</v>
+        <v>107622.98</v>
       </c>
       <c r="E114" t="n">
-        <v>3.6</v>
+        <v>7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>24843.17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>10.3</v>
+        <v>15.9</v>
       </c>
       <c r="C115" t="n">
-        <v>23342.71</v>
+        <v>27908.51</v>
       </c>
       <c r="D115" t="n">
-        <v>60159.87</v>
+        <v>135642.55</v>
       </c>
       <c r="E115" t="n">
-        <v>6.3</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>28019.56999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>7.9</v>
+        <v>14.8</v>
       </c>
       <c r="C116" t="n">
-        <v>22979.98</v>
+        <v>25781.75</v>
       </c>
       <c r="D116" t="n">
-        <v>82779.81</v>
+        <v>161327.09</v>
       </c>
       <c r="E116" t="n">
-        <v>6.8</v>
+        <v>8.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>25684.54000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>9.6</v>
+        <v>14.6</v>
       </c>
       <c r="C117" t="n">
-        <v>24841.05</v>
+        <v>26074.92</v>
       </c>
       <c r="D117" t="n">
-        <v>107622.98</v>
+        <v>187499.26</v>
       </c>
       <c r="E117" t="n">
-        <v>7</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>26172.17000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>15.9</v>
+        <v>12.7</v>
       </c>
       <c r="C118" t="n">
-        <v>27908.51</v>
+        <v>26316.36</v>
       </c>
       <c r="D118" t="n">
-        <v>135642.55</v>
+        <v>213784.5</v>
       </c>
       <c r="E118" t="n">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26285.23999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>14.8</v>
+        <v>21.1</v>
       </c>
       <c r="C119" t="n">
-        <v>25781.75</v>
+        <v>27306.83</v>
       </c>
       <c r="D119" t="n">
-        <v>161327.09</v>
+        <v>241771.74</v>
       </c>
       <c r="E119" t="n">
-        <v>8.9</v>
+        <v>11.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>27987.23999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>14.6</v>
+        <v>26.3</v>
       </c>
       <c r="C120" t="n">
-        <v>26074.92</v>
+        <v>28894.05</v>
       </c>
       <c r="D120" t="n">
-        <v>187499.26</v>
+        <v>270547.55</v>
       </c>
       <c r="E120" t="n">
-        <v>9.699999999999999</v>
+        <v>12.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>28775.81</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>28062.25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>296477.25</v>
+      </c>
+      <c r="E121" t="n">
         <v>12.7</v>
       </c>
-      <c r="C121" t="n">
-        <v>26316.36</v>
-      </c>
-      <c r="D121" t="n">
-        <v>213784.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>10.3</v>
+      <c r="F121" t="n">
+        <v>25929.70000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2753,11 +3118,14 @@
       <c r="E122" t="n">
         <v>51.4939455424167</v>
       </c>
+      <c r="F122" t="n">
+        <v>25610.073736</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2772,11 +3140,14 @@
       <c r="E123" t="n">
         <v>30.5</v>
       </c>
+      <c r="F123" t="n">
+        <v>21297.826264</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2791,11 +3162,14 @@
       <c r="E124" t="n">
         <v>28.1</v>
       </c>
+      <c r="F124" t="n">
+        <v>28235.49999999999</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2810,11 +3184,14 @@
       <c r="E125" t="n">
         <v>23.3054291861747</v>
       </c>
+      <c r="F125" t="n">
+        <v>26928.60000000001</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2829,11 +3206,14 @@
       <c r="E126" t="n">
         <v>20.6216280994328</v>
       </c>
+      <c r="F126" t="n">
+        <v>28386.74726</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2848,11 +3228,14 @@
       <c r="E127" t="n">
         <v>8.060858660133221</v>
       </c>
+      <c r="F127" t="n">
+        <v>26826.304228</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2867,11 +3250,14 @@
       <c r="E128" t="n">
         <v>13.5</v>
       </c>
+      <c r="F128" t="n">
+        <v>24749.395772</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2886,1440 +3272,1674 @@
       <c r="E129" t="n">
         <v>15.6810370318289</v>
       </c>
+      <c r="F129" t="n">
+        <v>32323.72090500001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="C130" t="n">
-        <v>31694.5943</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>304506.0438</v>
+        <v>54651.8</v>
       </c>
       <c r="E130" t="n">
-        <v>-3.6</v>
+        <v>-4.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>54651.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-2.7</v>
+        <v>-7.6</v>
       </c>
       <c r="C131" t="n">
-        <v>32022.9169</v>
+        <v>30559.2</v>
       </c>
       <c r="D131" t="n">
-        <v>336778.6955</v>
+        <v>85181.39999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.67</v>
+        <v>-5.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>30529.59999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.3</v>
+        <v>-7.41</v>
       </c>
       <c r="C132" t="n">
-        <v>31658.9121</v>
+        <v>29801.71</v>
       </c>
       <c r="D132" t="n">
-        <v>368484.6528</v>
+        <v>115025.91</v>
       </c>
       <c r="E132" t="n">
-        <v>-3.45</v>
+        <v>-6.06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>29844.51000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-6.14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30938.5257</v>
+      </c>
       <c r="D133" t="n">
-        <v>54651.8</v>
+        <v>146036.4918</v>
       </c>
       <c r="E133" t="n">
-        <v>-4.2</v>
+        <v>-6.03</v>
+      </c>
+      <c r="F133" t="n">
+        <v>31010.58179999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-7.6</v>
+        <v>-4.86</v>
       </c>
       <c r="C134" t="n">
-        <v>30559.2</v>
+        <v>32671.9148</v>
       </c>
       <c r="D134" t="n">
-        <v>85181.39999999999</v>
+        <v>178904.255</v>
       </c>
       <c r="E134" t="n">
-        <v>-5.6</v>
+        <v>-5.77</v>
+      </c>
+      <c r="F134" t="n">
+        <v>32867.76320000002</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-7.41</v>
+        <v>-3.06</v>
       </c>
       <c r="C135" t="n">
-        <v>29801.71</v>
+        <v>30665.9475</v>
       </c>
       <c r="D135" t="n">
-        <v>115025.91</v>
+        <v>210012.0212</v>
       </c>
       <c r="E135" t="n">
-        <v>-6.06</v>
+        <v>-5.25</v>
+      </c>
+      <c r="F135" t="n">
+        <v>31107.76619999998</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-6.14</v>
+        <v>-2.62</v>
       </c>
       <c r="C136" t="n">
-        <v>30938.5257</v>
+        <v>30862.9111</v>
       </c>
       <c r="D136" t="n">
-        <v>146036.4918</v>
+        <v>240927.066</v>
       </c>
       <c r="E136" t="n">
-        <v>-6.03</v>
+        <v>-4.81</v>
+      </c>
+      <c r="F136" t="n">
+        <v>30915.0448</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-4.86</v>
+        <v>-2.2</v>
       </c>
       <c r="C137" t="n">
-        <v>32671.9148</v>
+        <v>31268.0657</v>
       </c>
       <c r="D137" t="n">
-        <v>178904.255</v>
+        <v>272513.6091</v>
       </c>
       <c r="E137" t="n">
-        <v>-5.77</v>
+        <v>-4.27</v>
+      </c>
+      <c r="F137" t="n">
+        <v>31586.54310000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-3.06</v>
+        <v>-1.18</v>
       </c>
       <c r="C138" t="n">
-        <v>30665.9475</v>
+        <v>31694.5943</v>
       </c>
       <c r="D138" t="n">
-        <v>210012.0212</v>
+        <v>304506.0438</v>
       </c>
       <c r="E138" t="n">
-        <v>-5.25</v>
+        <v>-3.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>31992.43469999998</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-2.62</v>
+        <v>-2.7</v>
       </c>
       <c r="C139" t="n">
-        <v>30862.9111</v>
+        <v>32022.9169</v>
       </c>
       <c r="D139" t="n">
-        <v>240927.066</v>
+        <v>336778.6955</v>
       </c>
       <c r="E139" t="n">
-        <v>-4.81</v>
+        <v>-3.67</v>
+      </c>
+      <c r="F139" t="n">
+        <v>32272.65169999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-2.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C140" t="n">
-        <v>31268.0657</v>
+        <v>31658.9121</v>
       </c>
       <c r="D140" t="n">
-        <v>272513.6091</v>
+        <v>368484.6528</v>
       </c>
       <c r="E140" t="n">
-        <v>-4.27</v>
+        <v>-3.45</v>
+      </c>
+      <c r="F140" t="n">
+        <v>31705.95730000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28185.2</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>273932.2</v>
+        <v>51346.1954</v>
       </c>
       <c r="E141" t="n">
-        <v>-10.7</v>
+        <v>-6.38</v>
+      </c>
+      <c r="F141" t="n">
+        <v>51346.1954</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-5.1</v>
+        <v>-4.54</v>
       </c>
       <c r="C142" t="n">
-        <v>30800.7</v>
+        <v>29379.7776</v>
       </c>
       <c r="D142" t="n">
-        <v>305253.4</v>
+        <v>81127.3134</v>
       </c>
       <c r="E142" t="n">
-        <v>-10</v>
+        <v>-5.31</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29781.118</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="C143" t="n">
-        <v>31097.7</v>
+        <v>26803.2</v>
       </c>
       <c r="D143" t="n">
-        <v>336398.6</v>
+        <v>108099.8</v>
       </c>
       <c r="E143" t="n">
-        <v>-9.4</v>
+        <v>-6.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>26972.4866</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>26375.1</v>
+      </c>
       <c r="D144" t="n">
-        <v>51346.1954</v>
+        <v>134386.3</v>
       </c>
       <c r="E144" t="n">
-        <v>-6.38</v>
+        <v>-8.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>26286.49999999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-4.54</v>
+        <v>-16.6</v>
       </c>
       <c r="C145" t="n">
-        <v>29379.7776</v>
+        <v>27754.3</v>
       </c>
       <c r="D145" t="n">
-        <v>81127.3134</v>
+        <v>162763.5</v>
       </c>
       <c r="E145" t="n">
-        <v>-5.31</v>
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="F145" t="n">
+        <v>28377.20000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-11</v>
+        <v>-13.1</v>
       </c>
       <c r="C146" t="n">
-        <v>26803.2</v>
+        <v>27000.7</v>
       </c>
       <c r="D146" t="n">
-        <v>108099.8</v>
+        <v>190079.9</v>
       </c>
       <c r="E146" t="n">
-        <v>-6.8</v>
+        <v>-10.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>27316.39999999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-15.5</v>
+        <v>-11</v>
       </c>
       <c r="C147" t="n">
-        <v>26375.1</v>
+        <v>27808.9</v>
       </c>
       <c r="D147" t="n">
-        <v>134386.3</v>
+        <v>217887.4</v>
       </c>
       <c r="E147" t="n">
-        <v>-8.4</v>
+        <v>-10.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>27807.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-16.6</v>
+        <v>-12.3</v>
       </c>
       <c r="C148" t="n">
-        <v>27754.3</v>
+        <v>27696.4</v>
       </c>
       <c r="D148" t="n">
-        <v>162763.5</v>
+        <v>245632.1</v>
       </c>
       <c r="E148" t="n">
-        <v>-9.699999999999999</v>
+        <v>-10.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>27744.70000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-13.1</v>
+        <v>-12</v>
       </c>
       <c r="C149" t="n">
-        <v>27000.7</v>
+        <v>28185.2</v>
       </c>
       <c r="D149" t="n">
-        <v>190079.9</v>
+        <v>273932.2</v>
       </c>
       <c r="E149" t="n">
-        <v>-10.1</v>
+        <v>-10.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>28300.10000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-11</v>
+        <v>-5.1</v>
       </c>
       <c r="C150" t="n">
-        <v>27808.9</v>
+        <v>30800.7</v>
       </c>
       <c r="D150" t="n">
-        <v>217887.4</v>
+        <v>305253.4</v>
       </c>
       <c r="E150" t="n">
-        <v>-10.2</v>
+        <v>-10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31321.20000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-12.3</v>
+        <v>-3</v>
       </c>
       <c r="C151" t="n">
-        <v>27696.4</v>
+        <v>31097.7</v>
       </c>
       <c r="D151" t="n">
-        <v>245632.1</v>
+        <v>336398.6</v>
       </c>
       <c r="E151" t="n">
-        <v>-10.5</v>
+        <v>-9.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31145.19999999995</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>28354.3</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>285279</v>
+        <v>50678.2</v>
       </c>
       <c r="E152" t="n">
-        <v>4.8</v>
+        <v>-1.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>50678.2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-2.7</v>
+        <v>1.9</v>
       </c>
       <c r="C153" t="n">
-        <v>29997.5</v>
+        <v>29976.3</v>
       </c>
       <c r="D153" t="n">
-        <v>313595.6</v>
+        <v>80922.60000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>3.7</v>
+        <v>-0.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30244.40000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.1</v>
+        <v>9.9</v>
       </c>
       <c r="C154" t="n">
-        <v>31487.2</v>
+        <v>29453</v>
       </c>
       <c r="D154" t="n">
-        <v>344545.6</v>
+        <v>110827.8</v>
       </c>
       <c r="E154" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>29905.2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>29777.9</v>
+      </c>
       <c r="D155" t="n">
-        <v>50678.2</v>
+        <v>140652.7</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.7</v>
+        <v>4.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>29824.90000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1.9</v>
+        <v>10.6</v>
       </c>
       <c r="C156" t="n">
-        <v>29976.3</v>
+        <v>30835.3</v>
       </c>
       <c r="D156" t="n">
-        <v>80922.60000000001</v>
+        <v>171263.2</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.3</v>
+        <v>5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>30610.5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="C157" t="n">
-        <v>29453</v>
+        <v>29438.1</v>
       </c>
       <c r="D157" t="n">
-        <v>110827.8</v>
+        <v>200605.8</v>
       </c>
       <c r="E157" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>29342.59999999998</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12.1</v>
+        <v>4.1</v>
       </c>
       <c r="C158" t="n">
-        <v>29777.9</v>
+        <v>29076.9</v>
       </c>
       <c r="D158" t="n">
-        <v>140652.7</v>
+        <v>229999.9</v>
       </c>
       <c r="E158" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>29394.10000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>10.6</v>
+        <v>7.6</v>
       </c>
       <c r="C159" t="n">
-        <v>30835.3</v>
+        <v>29811.9</v>
       </c>
       <c r="D159" t="n">
-        <v>171263.2</v>
+        <v>259202</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>5.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>29202.10000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="C160" t="n">
-        <v>29438.1</v>
+        <v>28354.3</v>
       </c>
       <c r="D160" t="n">
-        <v>200605.8</v>
+        <v>285279</v>
       </c>
       <c r="E160" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>26077</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.1</v>
+        <v>-2.7</v>
       </c>
       <c r="C161" t="n">
-        <v>29076.9</v>
+        <v>29997.5</v>
       </c>
       <c r="D161" t="n">
-        <v>229999.9</v>
+        <v>313595.6</v>
       </c>
       <c r="E161" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>28316.59999999998</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="C162" t="n">
-        <v>29811.9</v>
+        <v>31487.2</v>
       </c>
       <c r="D162" t="n">
-        <v>259202</v>
+        <v>344545.6</v>
       </c>
       <c r="E162" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>30950</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>8</v>
-      </c>
-      <c r="C163" t="n">
-        <v>30513.1</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>289889.2</v>
+        <v>51628.5</v>
       </c>
       <c r="E163" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>51628.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="C164" t="n">
-        <v>31541.5</v>
+        <v>29021.8</v>
       </c>
       <c r="D164" t="n">
-        <v>321413.8</v>
+        <v>80454.10000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>28825.60000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="C165" t="n">
-        <v>32038.3</v>
+        <v>29329.7</v>
       </c>
       <c r="D165" t="n">
-        <v>354590.8</v>
+        <v>109671</v>
       </c>
       <c r="E165" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>29216.89999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>29699</v>
+      </c>
       <c r="D166" t="n">
-        <v>51628.5</v>
+        <v>139828.7</v>
       </c>
       <c r="E166" t="n">
-        <v>5.7</v>
+        <v>4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>30157.70000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="C167" t="n">
-        <v>29021.8</v>
+        <v>29801.7</v>
       </c>
       <c r="D167" t="n">
-        <v>80454.10000000001</v>
+        <v>169658.9</v>
       </c>
       <c r="E167" t="n">
         <v>3.9</v>
       </c>
+      <c r="F167" t="n">
+        <v>29830.19999999998</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4.1</v>
+        <v>-2</v>
       </c>
       <c r="C168" t="n">
-        <v>29329.7</v>
+        <v>28150.4</v>
       </c>
       <c r="D168" t="n">
-        <v>109671</v>
+        <v>197818</v>
       </c>
       <c r="E168" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>28159.10000000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C169" t="n">
-        <v>29699</v>
+        <v>29660.2</v>
       </c>
       <c r="D169" t="n">
-        <v>139828.7</v>
+        <v>227845.7</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>3.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30027.70000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="C170" t="n">
-        <v>29801.7</v>
+        <v>30601.3</v>
       </c>
       <c r="D170" t="n">
-        <v>169658.9</v>
+        <v>259492.5</v>
       </c>
       <c r="E170" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>31646.79999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="C171" t="n">
-        <v>28150.4</v>
+        <v>30513.1</v>
       </c>
       <c r="D171" t="n">
-        <v>197818</v>
+        <v>289889.2</v>
       </c>
       <c r="E171" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30396.70000000001</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C172" t="n">
-        <v>29660.2</v>
+        <v>31541.5</v>
       </c>
       <c r="D172" t="n">
-        <v>227845.7</v>
+        <v>321413.8</v>
       </c>
       <c r="E172" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>31524.59999999998</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>32038.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>354590.8</v>
+      </c>
+      <c r="E173" t="n">
         <v>5.2</v>
       </c>
-      <c r="C173" t="n">
-        <v>30601.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>259492.5</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.1</v>
+      <c r="F173" t="n">
+        <v>33177</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C174" t="n">
-        <v>32486.8</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>306308.7</v>
+        <v>51367.1</v>
       </c>
       <c r="E174" t="n">
-        <v>4.5</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>51367.1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="C175" t="n">
-        <v>33405.7</v>
+        <v>29835.3</v>
       </c>
       <c r="D175" t="n">
-        <v>340721.3</v>
+        <v>81259</v>
       </c>
       <c r="E175" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>29891.9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="C176" t="n">
-        <v>33174.2</v>
+        <v>29429</v>
       </c>
       <c r="D176" t="n">
-        <v>374552.5</v>
+        <v>110960.8</v>
       </c>
       <c r="E176" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>29701.8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>31239.4</v>
+      </c>
       <c r="D177" t="n">
-        <v>51367.1</v>
+        <v>142268.6</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.5</v>
+        <v>0.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>31307.8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2.7</v>
+        <v>10.4</v>
       </c>
       <c r="C178" t="n">
-        <v>29835.3</v>
+        <v>33335</v>
       </c>
       <c r="D178" t="n">
-        <v>81259</v>
+        <v>175820.4</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>33551.79999999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.1</v>
+        <v>12.2</v>
       </c>
       <c r="C179" t="n">
-        <v>29429</v>
+        <v>32222.7</v>
       </c>
       <c r="D179" t="n">
-        <v>110960.8</v>
+        <v>208855.4</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>33035</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>31239.4</v>
+        <v>31602</v>
       </c>
       <c r="D180" t="n">
-        <v>142268.6</v>
+        <v>240928.6</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>32073.20000000001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10.4</v>
+        <v>4.4</v>
       </c>
       <c r="C181" t="n">
-        <v>33335</v>
+        <v>32414.1</v>
       </c>
       <c r="D181" t="n">
-        <v>175820.4</v>
+        <v>273645.2</v>
       </c>
       <c r="E181" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>32716.60000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>12.2</v>
+        <v>4.4</v>
       </c>
       <c r="C182" t="n">
-        <v>32222.7</v>
+        <v>32486.8</v>
       </c>
       <c r="D182" t="n">
-        <v>208855.4</v>
+        <v>306308.7</v>
       </c>
       <c r="E182" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>32663.5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C183" t="n">
-        <v>31602</v>
+        <v>33405.7</v>
       </c>
       <c r="D183" t="n">
-        <v>240928.6</v>
+        <v>340721.3</v>
       </c>
       <c r="E183" t="n">
         <v>4.5</v>
       </c>
+      <c r="F183" t="n">
+        <v>34412.59999999998</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="C184" t="n">
-        <v>32414.1</v>
+        <v>33174.2</v>
       </c>
       <c r="D184" t="n">
-        <v>273645.2</v>
+        <v>374552.5</v>
       </c>
       <c r="E184" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>33831.20000000001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>33662.8</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>312742.7</v>
+        <v>48902.6</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1</v>
+        <v>-6.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>48902.6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="C186" t="n">
-        <v>34727.3</v>
+        <v>33726</v>
       </c>
       <c r="D186" t="n">
-        <v>348173.3</v>
+        <v>82991.10000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4</v>
+        <v>-0.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>34088.50000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="C187" t="n">
-        <v>35189.3</v>
+        <v>32212.1</v>
       </c>
       <c r="D187" t="n">
-        <v>384374.1</v>
+        <v>115243.7</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32252.59999999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>31884</v>
+      </c>
       <c r="D188" t="n">
-        <v>48902.6</v>
+        <v>147130.3</v>
       </c>
       <c r="E188" t="n">
-        <v>-6.3</v>
+        <v>0.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>31886.59999999999</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C189" t="n">
-        <v>33726</v>
+        <v>33427.6</v>
       </c>
       <c r="D189" t="n">
-        <v>82991.10000000001</v>
+        <v>180540.6</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>33410.30000000002</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>-3.7</v>
       </c>
       <c r="C190" t="n">
-        <v>32212.1</v>
+        <v>31794.1</v>
       </c>
       <c r="D190" t="n">
-        <v>115243.7</v>
+        <v>212281.7</v>
       </c>
       <c r="E190" t="n">
-        <v>1.3</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>31741.10000000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>-0.1</v>
       </c>
       <c r="C191" t="n">
-        <v>31884</v>
+        <v>32580.9</v>
       </c>
       <c r="D191" t="n">
-        <v>147130.3</v>
+        <v>245041.8</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32760.09999999998</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="C192" t="n">
-        <v>33427.6</v>
+        <v>33107.3</v>
       </c>
       <c r="D192" t="n">
-        <v>180540.6</v>
+        <v>278715.3</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6</v>
+        <v>-0.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>33673.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-3.7</v>
+        <v>1.4</v>
       </c>
       <c r="C193" t="n">
-        <v>31794.1</v>
+        <v>33662.8</v>
       </c>
       <c r="D193" t="n">
-        <v>212281.7</v>
+        <v>312742.7</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>34027.40000000002</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.1</v>
+        <v>1.5</v>
       </c>
       <c r="C194" t="n">
-        <v>32580.9</v>
+        <v>34727.3</v>
       </c>
       <c r="D194" t="n">
-        <v>245041.8</v>
+        <v>348173.3</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>35430.59999999998</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.9</v>
+        <v>3.2</v>
       </c>
       <c r="C195" t="n">
-        <v>33107.3</v>
+        <v>35189.3</v>
       </c>
       <c r="D195" t="n">
-        <v>278715.3</v>
+        <v>384374.1</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.1</v>
+        <v>0.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>36200.79999999999</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>4</v>
-      </c>
-      <c r="C196" t="n">
-        <v>35708.9</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>329715.8</v>
+        <v>61759.3</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="F196" t="n">
+        <v>61759.3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4.6</v>
+        <v>-0.2</v>
       </c>
       <c r="C197" t="n">
-        <v>37084.4</v>
+        <v>34076.2</v>
       </c>
       <c r="D197" t="n">
-        <v>367426.6</v>
+        <v>97055.8</v>
       </c>
       <c r="E197" t="n">
-        <v>4.2</v>
+        <v>16</v>
+      </c>
+      <c r="F197" t="n">
+        <v>35296.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>7.2</v>
+        <v>-1.8</v>
       </c>
       <c r="C198" t="n">
-        <v>38466.8</v>
+        <v>32221.7</v>
       </c>
       <c r="D198" t="n">
-        <v>407136</v>
+        <v>129439.6</v>
       </c>
       <c r="E198" t="n">
-        <v>4.7</v>
+        <v>11.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>32383.8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>32628.9</v>
+      </c>
       <c r="D199" t="n">
-        <v>61759.3</v>
+        <v>162099.9</v>
       </c>
       <c r="E199" t="n">
-        <v>25</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>32660.29999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.2</v>
+        <v>-5</v>
       </c>
       <c r="C200" t="n">
-        <v>34076.2</v>
+        <v>32318.6</v>
       </c>
       <c r="D200" t="n">
-        <v>97055.8</v>
+        <v>194867.4</v>
       </c>
       <c r="E200" t="n">
-        <v>16</v>
+        <v>6.4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>32767.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1.8</v>
+        <v>-3.3</v>
       </c>
       <c r="C201" t="n">
-        <v>32221.7</v>
+        <v>31417.4</v>
       </c>
       <c r="D201" t="n">
-        <v>129439.6</v>
+        <v>226187.2</v>
       </c>
       <c r="E201" t="n">
-        <v>11.1</v>
+        <v>4.9</v>
+      </c>
+      <c r="F201" t="n">
+        <v>31319.80000000002</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C202" t="n">
-        <v>32628.9</v>
+        <v>33524</v>
       </c>
       <c r="D202" t="n">
-        <v>162099.9</v>
+        <v>259724</v>
       </c>
       <c r="E202" t="n">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
+      </c>
+      <c r="F202" t="n">
+        <v>33536.79999999999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-5</v>
+        <v>-0.9</v>
       </c>
       <c r="C203" t="n">
-        <v>32318.6</v>
+        <v>33409.8</v>
       </c>
       <c r="D203" t="n">
-        <v>194867.4</v>
+        <v>293059.3</v>
       </c>
       <c r="E203" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>33335.29999999999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-3.3</v>
+        <v>4</v>
       </c>
       <c r="C204" t="n">
-        <v>31417.4</v>
+        <v>35708.9</v>
       </c>
       <c r="D204" t="n">
-        <v>226187.2</v>
+        <v>329715.8</v>
       </c>
       <c r="E204" t="n">
-        <v>4.9</v>
+        <v>4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>36656.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="C205" t="n">
-        <v>33524</v>
+        <v>37084.4</v>
       </c>
       <c r="D205" t="n">
-        <v>259724</v>
+        <v>367426.6</v>
       </c>
       <c r="E205" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>37710.79999999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.9</v>
+        <v>7.2</v>
       </c>
       <c r="C206" t="n">
-        <v>33409.8</v>
+        <v>38466.8</v>
       </c>
       <c r="D206" t="n">
-        <v>293059.3</v>
+        <v>407136</v>
       </c>
       <c r="E206" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>39709.40000000002</v>
       </c>
     </row>
   </sheetData>
